--- a/data/trans_orig/P1435-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1435-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{120B1EA5-F9E3-4099-BA20-43E37103E6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF98322F-4C6C-4B02-BA20-98BC6F372B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DF0DABC0-945E-412A-B256-88061043AC1F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6364D675-F774-4763-8AD7-59CDF7C933D6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="195">
   <si>
     <t>Población con diagnóstico de dolor menstrual en 2007 (Tasa respuesta: 50,64%)</t>
   </si>
@@ -92,10 +92,10 @@
     <t>16,6%</t>
   </si>
   <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,10 +104,10 @@
     <t>83,4%</t>
   </si>
   <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
   </si>
   <si>
     <t>100%</t>
@@ -122,19 +122,19 @@
     <t>14,91%</t>
   </si>
   <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
   </si>
   <si>
     <t>85,09%</t>
   </si>
   <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -146,382 +146,403 @@
     <t>8,95%</t>
   </si>
   <si>
-    <t>6,99%</t>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor menstrual en 2012 (Tasa respuesta: 50,65%)</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor menstrual en 2015 (Tasa respuesta: 50,81%)</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor menstrual en 2023 (Tasa respuesta: 61,33%)</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
   </si>
   <si>
     <t>11,19%</t>
   </si>
   <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor menstrual en 2012 (Tasa respuesta: 50,65%)</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor menstrual en 2015 (Tasa respuesta: 50,81%)</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor menstrual en 2023 (Tasa respuesta: 61,33%)</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
   </si>
   <si>
     <t>83,97%</t>
   </si>
   <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
   </si>
   <si>
     <t>0,25%</t>
@@ -530,73 +551,79 @@
     <t>0,05%</t>
   </si>
   <si>
-    <t>0,74%</t>
+    <t>0,77%</t>
   </si>
   <si>
     <t>5,91%</t>
   </si>
   <si>
-    <t>4,67%</t>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
   </si>
   <si>
     <t>7,55%</t>
   </si>
   <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
     <t>93,06%</t>
   </si>
   <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CC354F-B7A4-4A71-8CD0-37186176D41F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C66794E-0338-49EE-A678-7E1D7DA27C0D}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1989,10 +2016,10 @@
         <v>50</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M21" s="7">
         <v>3</v>
@@ -2004,10 +2031,10 @@
         <v>50</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2035,13 +2062,13 @@
         <v>401063</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M22" s="7">
         <v>393</v>
@@ -2050,13 +2077,13 @@
         <v>401063</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2110,7 +2137,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2184,13 +2211,13 @@
         <v>5817</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -2199,13 +2226,13 @@
         <v>5817</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,13 +2260,13 @@
         <v>671025</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M26" s="7">
         <v>655</v>
@@ -2248,13 +2275,13 @@
         <v>671025</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2339,7 +2366,7 @@
         <v>13</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2354,7 +2381,7 @@
         <v>13</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,13 +2409,13 @@
         <v>260146</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M29" s="7">
         <v>259</v>
@@ -2397,13 +2424,13 @@
         <v>260146</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2431,13 +2458,13 @@
         <v>3119052</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M30" s="7">
         <v>3038</v>
@@ -2446,13 +2473,13 @@
         <v>3119052</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,7 +2533,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2528,7 +2555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F6473D-AC34-45C5-BFDF-F49001A30BD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA94142-94F0-4D95-BF9A-953EC2AED7EA}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2545,7 +2572,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2671,7 +2698,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2686,7 +2713,7 @@
         <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2714,13 +2741,13 @@
         <v>45364</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M5" s="7">
         <v>45</v>
@@ -2729,13 +2756,13 @@
         <v>45364</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,13 +2790,13 @@
         <v>384866</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M6" s="7">
         <v>376</v>
@@ -2778,13 +2805,13 @@
         <v>384866</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2869,7 +2896,7 @@
         <v>13</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2884,7 +2911,7 @@
         <v>13</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,13 +2939,13 @@
         <v>36454</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M9" s="7">
         <v>36</v>
@@ -2927,13 +2954,13 @@
         <v>36454</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2961,13 +2988,13 @@
         <v>573801</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M10" s="7">
         <v>535</v>
@@ -2976,13 +3003,13 @@
         <v>573801</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,13 +3137,13 @@
         <v>45626</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -3125,13 +3152,13 @@
         <v>45626</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,13 +3186,13 @@
         <v>663948</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>623</v>
@@ -3174,13 +3201,13 @@
         <v>663948</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,7 +3292,7 @@
         <v>13</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3280,7 +3307,7 @@
         <v>13</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,13 +3335,13 @@
         <v>9966</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -3323,13 +3350,13 @@
         <v>9966</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3357,13 +3384,13 @@
         <v>604298</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="M18" s="7">
         <v>529</v>
@@ -3372,13 +3399,13 @@
         <v>604298</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3463,7 +3490,7 @@
         <v>13</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3478,7 +3505,7 @@
         <v>13</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3512,7 +3539,7 @@
         <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -3527,7 +3554,7 @@
         <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3555,10 +3582,10 @@
         <v>447800</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>23</v>
@@ -3570,10 +3597,10 @@
         <v>447800</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>23</v>
@@ -3630,7 +3657,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3661,7 +3688,7 @@
         <v>13</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3676,7 +3703,7 @@
         <v>13</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,7 +3737,7 @@
         <v>13</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -3725,7 +3752,7 @@
         <v>13</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,10 +3780,10 @@
         <v>742975</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>23</v>
@@ -3768,10 +3795,10 @@
         <v>742975</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>23</v>
@@ -3859,7 +3886,7 @@
         <v>13</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3874,7 +3901,7 @@
         <v>13</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3902,13 +3929,13 @@
         <v>137409</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M29" s="7">
         <v>133</v>
@@ -3917,13 +3944,13 @@
         <v>137409</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,13 +3978,13 @@
         <v>3417689</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M30" s="7">
         <v>3163</v>
@@ -3966,13 +3993,13 @@
         <v>3417689</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,7 +4053,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -4048,7 +4075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7A9104-17DA-49E9-9595-8B52BB67BB06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E151DB14-1662-46D2-A118-8555059F7CA6}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4065,7 +4092,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4191,7 +4218,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4206,7 +4233,7 @@
         <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4261,13 @@
         <v>21539</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
@@ -4249,13 +4276,13 @@
         <v>21539</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4283,13 +4310,13 @@
         <v>374216</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M6" s="7">
         <v>383</v>
@@ -4298,13 +4325,13 @@
         <v>374216</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4389,7 +4416,7 @@
         <v>13</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4404,7 +4431,7 @@
         <v>13</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,13 +4459,13 @@
         <v>22715</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M9" s="7">
         <v>24</v>
@@ -4447,13 +4474,13 @@
         <v>22715</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4481,13 +4508,13 @@
         <v>540829</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M10" s="7">
         <v>555</v>
@@ -4496,13 +4523,13 @@
         <v>540829</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4630,13 +4657,13 @@
         <v>11908</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -4645,13 +4672,13 @@
         <v>11908</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,13 +4706,13 @@
         <v>649478</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M14" s="7">
         <v>653</v>
@@ -4694,13 +4721,13 @@
         <v>649478</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,13 +4855,13 @@
         <v>10226</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -4843,13 +4870,13 @@
         <v>10226</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4904,13 @@
         <v>638851</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M18" s="7">
         <v>592</v>
@@ -4892,13 +4919,13 @@
         <v>638851</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4983,7 +5010,7 @@
         <v>13</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4998,7 +5025,7 @@
         <v>13</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,7 +5059,7 @@
         <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -5047,7 +5074,7 @@
         <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5075,10 +5102,10 @@
         <v>496849</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>23</v>
@@ -5090,10 +5117,10 @@
         <v>496849</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>23</v>
@@ -5150,7 +5177,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5273,10 +5300,10 @@
         <v>777931</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>23</v>
@@ -5288,10 +5315,10 @@
         <v>777931</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>23</v>
@@ -5379,7 +5406,7 @@
         <v>13</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5394,7 +5421,7 @@
         <v>13</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5422,13 +5449,13 @@
         <v>66388</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M29" s="7">
         <v>67</v>
@@ -5437,13 +5464,13 @@
         <v>66388</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,13 +5498,13 @@
         <v>3478154</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M30" s="7">
         <v>3271</v>
@@ -5486,13 +5513,13 @@
         <v>3478154</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,7 +5573,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -5568,7 +5595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92231D9-6D77-4F58-849A-196A7332F593}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6191FC4C-298D-4527-AF4B-F101FEE8A896}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5585,7 +5612,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5711,7 +5738,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5726,7 +5753,7 @@
         <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5754,13 +5781,13 @@
         <v>33251</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
@@ -5769,13 +5796,13 @@
         <v>33251</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,13 +5830,13 @@
         <v>321706</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="M6" s="7">
         <v>186</v>
@@ -5818,13 +5845,13 @@
         <v>321706</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5903,13 +5930,13 @@
         <v>2005</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -5918,13 +5945,13 @@
         <v>2005</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5952,13 +5979,13 @@
         <v>81130</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="M9" s="7">
         <v>59</v>
@@ -5967,13 +5994,13 @@
         <v>81130</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6001,13 +6028,13 @@
         <v>416081</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="M10" s="7">
         <v>399</v>
@@ -6016,13 +6043,13 @@
         <v>416081</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,13 +6128,13 @@
         <v>29463</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -6116,13 +6143,13 @@
         <v>29463</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6150,13 +6177,13 @@
         <v>68152</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>17</v>
+        <v>164</v>
       </c>
       <c r="M13" s="7">
         <v>101</v>
@@ -6165,13 +6192,13 @@
         <v>68152</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>17</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,13 +6226,13 @@
         <v>511230</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="M14" s="7">
         <v>740</v>
@@ -6214,13 +6241,13 @@
         <v>511230</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6299,13 +6326,13 @@
         <v>1884</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -6314,13 +6341,13 @@
         <v>1884</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6348,13 +6375,13 @@
         <v>44188</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="M17" s="7">
         <v>70</v>
@@ -6363,13 +6390,13 @@
         <v>44188</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6397,13 +6424,13 @@
         <v>701189</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="M18" s="7">
         <v>1068</v>
@@ -6412,13 +6439,13 @@
         <v>701189</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6497,13 +6524,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6512,13 +6539,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6546,13 +6573,13 @@
         <v>2399</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -6561,13 +6588,13 @@
         <v>2399</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6595,13 +6622,13 @@
         <v>591018</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M22" s="7">
         <v>995</v>
@@ -6610,13 +6637,13 @@
         <v>591018</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6670,7 +6697,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6695,13 +6722,13 @@
         <v>619</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -6710,13 +6737,13 @@
         <v>619</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6750,7 +6777,7 @@
         <v>13</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6765,7 +6792,7 @@
         <v>13</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6793,13 +6820,13 @@
         <v>1025364</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="M26" s="7">
         <v>1706</v>
@@ -6808,13 +6835,13 @@
         <v>1025364</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6893,13 +6920,13 @@
         <v>36734</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="M28" s="7">
         <v>13</v>
@@ -6908,13 +6935,13 @@
         <v>36734</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6942,13 +6969,13 @@
         <v>229119</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="M29" s="7">
         <v>255</v>
@@ -6957,13 +6984,13 @@
         <v>229119</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6991,13 +7018,13 @@
         <v>3566588</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="M30" s="7">
         <v>5094</v>
@@ -7006,13 +7033,13 @@
         <v>3566588</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7066,7 +7093,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1435-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1435-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF98322F-4C6C-4B02-BA20-98BC6F372B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{105F1582-C57C-4A46-9555-496D6A7F81D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6364D675-F774-4763-8AD7-59CDF7C933D6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D61C5410-99DD-445F-9175-BD2E00E8E47B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -95,7 +95,7 @@
     <t>13,35%</t>
   </si>
   <si>
-    <t>20,19%</t>
+    <t>19,92%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +104,7 @@
     <t>83,4%</t>
   </si>
   <si>
-    <t>79,81%</t>
+    <t>80,08%</t>
   </si>
   <si>
     <t>86,65%</t>
@@ -122,19 +122,19 @@
     <t>14,91%</t>
   </si>
   <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
   </si>
   <si>
     <t>85,09%</t>
   </si>
   <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -146,19 +146,19 @@
     <t>8,95%</t>
   </si>
   <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
   </si>
   <si>
     <t>91,05%</t>
   </si>
   <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -170,19 +170,19 @@
     <t>3,65%</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
   </si>
   <si>
     <t>96,35%</t>
   </si>
   <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -197,13 +197,13 @@
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,93%</t>
+    <t>2,15%</t>
   </si>
   <si>
     <t>99,28%</t>
   </si>
   <si>
-    <t>98,07%</t>
+    <t>97,85%</t>
   </si>
   <si>
     <t>99,8%</t>
@@ -215,19 +215,19 @@
     <t>0,86%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
   </si>
   <si>
     <t>99,14%</t>
   </si>
   <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
   </si>
   <si>
     <t>0,06%</t>
@@ -236,19 +236,19 @@
     <t>7,7%</t>
   </si>
   <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
   </si>
   <si>
     <t>92,3%</t>
   </si>
   <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -263,19 +263,19 @@
     <t>10,54%</t>
   </si>
   <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
   </si>
   <si>
     <t>89,46%</t>
   </si>
   <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
   </si>
   <si>
     <t>0,34%</t>
@@ -284,19 +284,19 @@
     <t>5,97%</t>
   </si>
   <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
   </si>
   <si>
     <t>94,03%</t>
   </si>
   <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
   </si>
   <si>
     <t>6,43%</t>
@@ -305,13 +305,13 @@
     <t>4,64%</t>
   </si>
   <si>
-    <t>8,4%</t>
+    <t>8,48%</t>
   </si>
   <si>
     <t>93,57%</t>
   </si>
   <si>
-    <t>91,6%</t>
+    <t>91,52%</t>
   </si>
   <si>
     <t>95,36%</t>
@@ -323,13 +323,19 @@
     <t>1,62%</t>
   </si>
   <si>
-    <t>3,17%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
   </si>
   <si>
     <t>98,38%</t>
   </si>
   <si>
-    <t>96,83%</t>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
   </si>
   <si>
     <t>0,47%</t>
@@ -350,40 +356,40 @@
     <t>3,87%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
   </si>
   <si>
     <t>96,13%</t>
   </si>
   <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor menstrual en 2015 (Tasa respuesta: 50,81%)</t>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor menstrual en 2016 (Tasa respuesta: 50,81%)</t>
   </si>
   <si>
     <t>5,44%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
   </si>
   <si>
     <t>94,56%</t>
   </si>
   <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -392,55 +398,55 @@
     <t>4,03%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
   </si>
   <si>
     <t>95,97%</t>
   </si>
   <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
   </si>
   <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
   </si>
   <si>
     <t>98,2%</t>
   </si>
   <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
   </si>
   <si>
     <t>98,42%</t>
   </si>
   <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
   </si>
   <si>
     <t>0,44%</t>
@@ -458,13 +464,13 @@
     <t>1,46%</t>
   </si>
   <si>
-    <t>2,37%</t>
+    <t>2,34%</t>
   </si>
   <si>
     <t>98,13%</t>
   </si>
   <si>
-    <t>97,63%</t>
+    <t>97,66%</t>
   </si>
   <si>
     <t>98,54%</t>
@@ -533,9 +539,6 @@
     <t>9,05%</t>
   </si>
   <si>
-    <t>13,72%</t>
-  </si>
-  <si>
     <t>83,97%</t>
   </si>
   <si>
@@ -549,9 +552,6 @@
   </si>
   <si>
     <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
   </si>
   <si>
     <t>5,91%</t>
@@ -1035,7 +1035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C66794E-0338-49EE-A678-7E1D7DA27C0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5347C8-A231-41C5-A795-CD17A72CB6DC}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2555,7 +2555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA94142-94F0-4D95-BF9A-953EC2AED7EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CE9CE7-722B-4FD9-938A-E9DDE65CAEC5}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3338,10 +3338,10 @@
         <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -3353,10 +3353,10 @@
         <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3384,13 +3384,13 @@
         <v>604298</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="M18" s="7">
         <v>529</v>
@@ -3399,13 +3399,13 @@
         <v>604298</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,7 +3490,7 @@
         <v>13</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>13</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,7 +3539,7 @@
         <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,10 +3582,10 @@
         <v>447800</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>23</v>
@@ -3597,10 +3597,10 @@
         <v>447800</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>23</v>
@@ -3688,7 +3688,7 @@
         <v>13</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3703,7 +3703,7 @@
         <v>13</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,7 +3737,7 @@
         <v>13</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>13</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,10 +3780,10 @@
         <v>742975</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>23</v>
@@ -3795,10 +3795,10 @@
         <v>742975</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>23</v>
@@ -3929,13 +3929,13 @@
         <v>137409</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M29" s="7">
         <v>133</v>
@@ -3944,13 +3944,13 @@
         <v>137409</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,13 +3978,13 @@
         <v>3417689</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M30" s="7">
         <v>3163</v>
@@ -3993,13 +3993,13 @@
         <v>3417689</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4075,7 +4075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E151DB14-1662-46D2-A118-8555059F7CA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066F37DA-01CA-4481-9348-B6DA2BFEC08F}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4092,7 +4092,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4218,7 +4218,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4233,7 +4233,7 @@
         <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,13 +4261,13 @@
         <v>21539</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
@@ -4276,13 +4276,13 @@
         <v>21539</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,13 +4310,13 @@
         <v>374216</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M6" s="7">
         <v>383</v>
@@ -4325,13 +4325,13 @@
         <v>374216</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,7 +4416,7 @@
         <v>13</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4431,7 +4431,7 @@
         <v>13</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4459,13 +4459,13 @@
         <v>22715</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M9" s="7">
         <v>24</v>
@@ -4474,13 +4474,13 @@
         <v>22715</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4508,13 +4508,13 @@
         <v>540829</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M10" s="7">
         <v>555</v>
@@ -4523,13 +4523,13 @@
         <v>540829</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4657,13 +4657,13 @@
         <v>11908</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -4672,13 +4672,13 @@
         <v>11908</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4706,13 @@
         <v>649478</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M14" s="7">
         <v>653</v>
@@ -4721,13 +4721,13 @@
         <v>649478</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4855,13 +4855,13 @@
         <v>10226</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -4870,13 +4870,13 @@
         <v>10226</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4904,13 @@
         <v>638851</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M18" s="7">
         <v>592</v>
@@ -4919,13 +4919,13 @@
         <v>638851</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,7 +5010,7 @@
         <v>13</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5025,7 +5025,7 @@
         <v>13</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,7 +5059,7 @@
         <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -5074,7 +5074,7 @@
         <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5102,10 +5102,10 @@
         <v>496849</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>23</v>
@@ -5117,10 +5117,10 @@
         <v>496849</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>23</v>
@@ -5300,10 +5300,10 @@
         <v>777931</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>23</v>
@@ -5315,10 +5315,10 @@
         <v>777931</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>23</v>
@@ -5449,13 +5449,13 @@
         <v>66388</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M29" s="7">
         <v>67</v>
@@ -5464,13 +5464,13 @@
         <v>66388</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,13 +5498,13 @@
         <v>3478154</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M30" s="7">
         <v>3271</v>
@@ -5513,13 +5513,13 @@
         <v>3478154</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,7 +5595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6191FC4C-298D-4527-AF4B-F101FEE8A896}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07D3285-ED68-41FA-8F10-6B75EB2C1C9F}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5612,7 +5612,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5738,7 +5738,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5753,7 +5753,7 @@
         <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5781,13 +5781,13 @@
         <v>33251</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
@@ -5796,13 +5796,13 @@
         <v>33251</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,13 +5830,13 @@
         <v>321706</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M6" s="7">
         <v>186</v>
@@ -5845,13 +5845,13 @@
         <v>321706</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5930,13 +5930,13 @@
         <v>2005</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -5945,13 +5945,13 @@
         <v>2005</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,13 +5979,13 @@
         <v>81130</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M9" s="7">
         <v>59</v>
@@ -5994,13 +5994,13 @@
         <v>81130</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6028,13 +6028,13 @@
         <v>416081</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M10" s="7">
         <v>399</v>
@@ -6043,13 +6043,13 @@
         <v>416081</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6128,13 +6128,13 @@
         <v>29463</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>92</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -6143,13 +6143,13 @@
         <v>29463</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>92</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6177,13 +6177,13 @@
         <v>68152</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>101</v>
@@ -6192,13 +6192,13 @@
         <v>68152</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>164</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,13 +6226,13 @@
         <v>511230</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M14" s="7">
         <v>740</v>
@@ -6241,13 +6241,13 @@
         <v>511230</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6326,13 +6326,13 @@
         <v>1884</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -6341,13 +6341,13 @@
         <v>1884</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6573,7 +6573,7 @@
         <v>2399</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>179</v>
@@ -6588,7 +6588,7 @@
         <v>2399</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>179</v>
@@ -6628,7 +6628,7 @@
         <v>182</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M22" s="7">
         <v>995</v>
@@ -6643,7 +6643,7 @@
         <v>182</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6826,7 +6826,7 @@
         <v>185</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M26" s="7">
         <v>1706</v>
@@ -6841,7 +6841,7 @@
         <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1435-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1435-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{105F1582-C57C-4A46-9555-496D6A7F81D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE192049-DF94-4569-9CB2-2C8A94806058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D61C5410-99DD-445F-9175-BD2E00E8E47B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E204E7BC-AEDB-4217-9BD0-FCC437033034}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="166">
   <si>
     <t>Población con diagnóstico de dolor menstrual en 2007 (Tasa respuesta: 50,64%)</t>
   </si>
@@ -71,559 +71,472 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>No recogida</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
   </si>
   <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor menstrual en 2012 (Tasa respuesta: 50,65%)</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>35/44</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor menstrual en 2016 (Tasa respuesta: 50,81%)</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor menstrual en 2012 (Tasa respuesta: 50,65%)</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor menstrual en 2016 (Tasa respuesta: 50,81%)</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
     <t>99,71%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
   </si>
   <si>
     <t>98,54%</t>
   </si>
   <si>
-    <t>Población con diagnóstico de dolor menstrual en 2023 (Tasa respuesta: 61,33%)</t>
-  </si>
-  <si>
-    <t>0,92%</t>
+    <t>Población con diagnóstico de dolor menstrual en 2023 (Tasa respuesta: 61,18%)</t>
   </si>
   <si>
     <t>9,37%</t>
   </si>
   <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
   </si>
   <si>
     <t>90,63%</t>
   </si>
   <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
     <t>0,11%</t>
   </si>
   <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
   </si>
 </sst>
 </file>
@@ -1035,8 +948,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5347C8-A231-41C5-A795-CD17A72CB6DC}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78987D4-5846-4CF5-B561-193669E8434A}">
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1166,10 +1079,10 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>77581</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>12</v>
@@ -1181,10 +1094,10 @@
         <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>77581</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>12</v>
@@ -1215,10 +1128,10 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>83</v>
+        <v>406</v>
       </c>
       <c r="I5" s="7">
-        <v>77581</v>
+        <v>389908</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>16</v>
@@ -1230,10 +1143,10 @@
         <v>18</v>
       </c>
       <c r="M5" s="7">
-        <v>83</v>
+        <v>406</v>
       </c>
       <c r="N5" s="7">
-        <v>77581</v>
+        <v>389908</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>16</v>
@@ -1248,7 +1161,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1264,40 +1177,42 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>406</v>
+        <v>489</v>
       </c>
       <c r="I6" s="7">
-        <v>389908</v>
+        <v>467489</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="7">
+        <v>489</v>
+      </c>
+      <c r="N6" s="7">
+        <v>467489</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="7">
-        <v>406</v>
-      </c>
-      <c r="N6" s="7">
-        <v>389908</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1313,42 +1228,40 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>489</v>
+        <v>89</v>
       </c>
       <c r="I7" s="7">
-        <v>467489</v>
+        <v>93267</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="M7" s="7">
-        <v>489</v>
+        <v>89</v>
       </c>
       <c r="N7" s="7">
-        <v>467489</v>
+        <v>93267</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1364,40 +1277,40 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>532227</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="7">
+        <v>502</v>
+      </c>
+      <c r="N8" s="7">
+        <v>532227</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -1413,40 +1326,42 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>89</v>
+        <v>591</v>
       </c>
       <c r="I9" s="7">
-        <v>93267</v>
+        <v>625494</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="7">
+        <v>591</v>
+      </c>
+      <c r="N9" s="7">
+        <v>625494</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="7">
-        <v>89</v>
-      </c>
-      <c r="N9" s="7">
-        <v>93267</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -1462,40 +1377,40 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>502</v>
+        <v>59</v>
       </c>
       <c r="I10" s="7">
-        <v>532227</v>
+        <v>61733</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="M10" s="7">
-        <v>502</v>
+        <v>59</v>
       </c>
       <c r="N10" s="7">
-        <v>532227</v>
+        <v>61733</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -1511,42 +1426,40 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="I11" s="7">
-        <v>625494</v>
+        <v>628011</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M11" s="7">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="N11" s="7">
-        <v>625494</v>
+        <v>628011</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -1562,40 +1475,42 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>658</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>689744</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>658</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>689744</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -1611,40 +1526,40 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="I13" s="7">
-        <v>61733</v>
+        <v>18824</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="7">
+        <v>19</v>
+      </c>
+      <c r="N13" s="7">
+        <v>18824</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M13" s="7">
-        <v>59</v>
-      </c>
-      <c r="N13" s="7">
-        <v>61733</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1660,34 +1575,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>599</v>
+        <v>483</v>
       </c>
       <c r="I14" s="7">
-        <v>628011</v>
+        <v>496818</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="7">
+        <v>483</v>
+      </c>
+      <c r="N14" s="7">
+        <v>496818</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="7">
-        <v>599</v>
-      </c>
-      <c r="N14" s="7">
-        <v>628011</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1709,39 +1624,39 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>658</v>
+        <v>502</v>
       </c>
       <c r="I15" s="7">
-        <v>689744</v>
+        <v>515642</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>658</v>
+        <v>502</v>
       </c>
       <c r="N15" s="7">
-        <v>689744</v>
+        <v>515642</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1760,34 +1675,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>2923</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>2923</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1809,40 +1724,40 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>19</v>
+        <v>393</v>
       </c>
       <c r="I17" s="7">
-        <v>18824</v>
+        <v>401063</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M17" s="7">
-        <v>19</v>
+        <v>393</v>
       </c>
       <c r="N17" s="7">
-        <v>18824</v>
+        <v>401063</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -1858,40 +1773,42 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>483</v>
+        <v>396</v>
       </c>
       <c r="I18" s="7">
-        <v>496818</v>
+        <v>403986</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>483</v>
+        <v>396</v>
       </c>
       <c r="N18" s="7">
-        <v>496818</v>
+        <v>403986</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B19" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -1907,42 +1824,40 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>502</v>
+        <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>515642</v>
+        <v>5817</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="M19" s="7">
-        <v>502</v>
+        <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>515642</v>
+        <v>5817</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -1958,40 +1873,40 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>671025</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>671025</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -2007,40 +1922,42 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
+        <v>661</v>
+      </c>
+      <c r="I21" s="7">
+        <v>676842</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="7">
+        <v>661</v>
+      </c>
+      <c r="N21" s="7">
+        <v>676842</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="7">
-        <v>2923</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2923</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -2056,40 +1973,40 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>393</v>
+        <v>259</v>
       </c>
       <c r="I22" s="7">
-        <v>401063</v>
+        <v>260146</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M22" s="7">
+        <v>259</v>
+      </c>
+      <c r="N22" s="7">
+        <v>260146</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M22" s="7">
-        <v>393</v>
-      </c>
-      <c r="N22" s="7">
-        <v>401063</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="P22" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -2105,42 +2022,40 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>396</v>
+        <v>3038</v>
       </c>
       <c r="I23" s="7">
-        <v>403986</v>
+        <v>3119052</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="M23" s="7">
-        <v>396</v>
+        <v>3038</v>
       </c>
       <c r="N23" s="7">
-        <v>403986</v>
+        <v>3119052</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -2156,407 +2071,62 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>3297</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>3379198</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>3297</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>3379198</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="7">
-        <v>6</v>
-      </c>
-      <c r="I25" s="7">
-        <v>5817</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M25" s="7">
-        <v>6</v>
-      </c>
-      <c r="N25" s="7">
-        <v>5817</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="7">
-        <v>655</v>
-      </c>
-      <c r="I26" s="7">
-        <v>671025</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K26" s="7" t="s">
+      <c r="A25" t="s">
         <v>61</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M26" s="7">
-        <v>655</v>
-      </c>
-      <c r="N26" s="7">
-        <v>671025</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>0</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="7">
-        <v>661</v>
-      </c>
-      <c r="I27" s="7">
-        <v>676842</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M27" s="7">
-        <v>661</v>
-      </c>
-      <c r="N27" s="7">
-        <v>676842</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="7">
-        <v>259</v>
-      </c>
-      <c r="I29" s="7">
-        <v>260146</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M29" s="7">
-        <v>259</v>
-      </c>
-      <c r="N29" s="7">
-        <v>260146</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="7">
-        <v>3038</v>
-      </c>
-      <c r="I30" s="7">
-        <v>3119052</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M30" s="7">
-        <v>3038</v>
-      </c>
-      <c r="N30" s="7">
-        <v>3119052</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="7">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I31" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M31" s="7">
-        <v>3297</v>
-      </c>
-      <c r="N31" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CE9CE7-722B-4FD9-938A-E9DDE65CAEC5}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C035154F-FDD0-4A2D-B2F5-9187D9A14114}">
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2572,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2686,34 +2256,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>45364</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>45364</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2735,40 +2305,40 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>45</v>
+        <v>376</v>
       </c>
       <c r="I5" s="7">
-        <v>45364</v>
+        <v>384866</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="M5" s="7">
-        <v>45</v>
+        <v>376</v>
       </c>
       <c r="N5" s="7">
-        <v>45364</v>
+        <v>384866</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -2784,40 +2354,42 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>376</v>
+        <v>421</v>
       </c>
       <c r="I6" s="7">
-        <v>384866</v>
+        <v>430230</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>376</v>
+        <v>421</v>
       </c>
       <c r="N6" s="7">
-        <v>384866</v>
+        <v>430230</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B7" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -2833,42 +2405,40 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>421</v>
+        <v>36</v>
       </c>
       <c r="I7" s="7">
-        <v>430230</v>
+        <v>36454</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="M7" s="7">
-        <v>421</v>
+        <v>36</v>
       </c>
       <c r="N7" s="7">
-        <v>430230</v>
+        <v>36454</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2884,40 +2454,40 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>535</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>573801</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>535</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>573801</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -2933,40 +2503,42 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>36</v>
+        <v>571</v>
       </c>
       <c r="I9" s="7">
-        <v>36454</v>
+        <v>610255</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>36</v>
+        <v>571</v>
       </c>
       <c r="N9" s="7">
-        <v>36454</v>
+        <v>610255</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -2982,40 +2554,40 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>535</v>
+        <v>43</v>
       </c>
       <c r="I10" s="7">
-        <v>573801</v>
+        <v>45626</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="M10" s="7">
-        <v>535</v>
+        <v>43</v>
       </c>
       <c r="N10" s="7">
-        <v>573801</v>
+        <v>45626</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -3031,42 +2603,40 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>571</v>
+        <v>623</v>
       </c>
       <c r="I11" s="7">
-        <v>610255</v>
+        <v>663948</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="M11" s="7">
-        <v>571</v>
+        <v>623</v>
       </c>
       <c r="N11" s="7">
-        <v>610255</v>
+        <v>663948</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -3082,40 +2652,42 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>666</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>709574</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>666</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>709574</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -3131,40 +2703,40 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>45626</v>
+        <v>9966</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="M13" s="7">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>45626</v>
+        <v>9966</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -3180,34 +2752,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>623</v>
+        <v>529</v>
       </c>
       <c r="I14" s="7">
-        <v>663948</v>
+        <v>604298</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="M14" s="7">
-        <v>623</v>
+        <v>529</v>
       </c>
       <c r="N14" s="7">
-        <v>663948</v>
+        <v>604298</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3229,39 +2801,39 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>666</v>
+        <v>538</v>
       </c>
       <c r="I15" s="7">
-        <v>709574</v>
+        <v>614264</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>666</v>
+        <v>538</v>
       </c>
       <c r="N15" s="7">
-        <v>709574</v>
+        <v>614264</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3286,13 +2858,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3301,13 +2873,13 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,40 +2901,40 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>9</v>
+        <v>406</v>
       </c>
       <c r="I17" s="7">
-        <v>9966</v>
+        <v>447800</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>9</v>
+        <v>406</v>
       </c>
       <c r="N17" s="7">
-        <v>9966</v>
+        <v>447800</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -3378,40 +2950,42 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>529</v>
+        <v>406</v>
       </c>
       <c r="I18" s="7">
-        <v>604298</v>
+        <v>447800</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>529</v>
+        <v>406</v>
       </c>
       <c r="N18" s="7">
-        <v>604298</v>
+        <v>447800</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B19" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -3427,42 +3001,40 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>538</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>614264</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="M19" s="7">
-        <v>538</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>614264</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -3478,40 +3050,40 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>694</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>742975</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>694</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>742975</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -3527,40 +3099,42 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>0</v>
+        <v>694</v>
       </c>
       <c r="I21" s="7">
-        <v>0</v>
+        <v>742975</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>0</v>
+        <v>694</v>
       </c>
       <c r="N21" s="7">
-        <v>0</v>
+        <v>742975</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B22" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -3576,40 +3150,40 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>406</v>
+        <v>133</v>
       </c>
       <c r="I22" s="7">
-        <v>447800</v>
+        <v>137409</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="M22" s="7">
-        <v>406</v>
+        <v>133</v>
       </c>
       <c r="N22" s="7">
-        <v>447800</v>
+        <v>137409</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -3625,42 +3199,40 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>406</v>
+        <v>3163</v>
       </c>
       <c r="I23" s="7">
-        <v>447800</v>
+        <v>3417689</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="M23" s="7">
-        <v>406</v>
+        <v>3163</v>
       </c>
       <c r="N23" s="7">
-        <v>447800</v>
+        <v>3417689</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -3676,407 +3248,62 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>3296</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>3555098</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>3296</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>3555098</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="7">
-        <v>694</v>
-      </c>
-      <c r="I26" s="7">
-        <v>742975</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M26" s="7">
-        <v>694</v>
-      </c>
-      <c r="N26" s="7">
-        <v>742975</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>0</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="7">
-        <v>694</v>
-      </c>
-      <c r="I27" s="7">
-        <v>742975</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M27" s="7">
-        <v>694</v>
-      </c>
-      <c r="N27" s="7">
-        <v>742975</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="7">
-        <v>133</v>
-      </c>
-      <c r="I29" s="7">
-        <v>137409</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M29" s="7">
-        <v>133</v>
-      </c>
-      <c r="N29" s="7">
-        <v>137409</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="7">
-        <v>3163</v>
-      </c>
-      <c r="I30" s="7">
-        <v>3417689</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M30" s="7">
-        <v>3163</v>
-      </c>
-      <c r="N30" s="7">
-        <v>3417689</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="7">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="7">
-        <v>3296</v>
-      </c>
-      <c r="I31" s="7">
-        <v>3555098</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M31" s="7">
-        <v>3296</v>
-      </c>
-      <c r="N31" s="7">
-        <v>3555098</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>70</v>
+      <c r="A25" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066F37DA-01CA-4481-9348-B6DA2BFEC08F}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2639FD16-FF75-4631-8DF9-95572BC67F8A}">
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4092,7 +3319,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4206,31 +3433,31 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>21539</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>99</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>21539</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>99</v>
@@ -4255,40 +3482,40 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>21</v>
+        <v>383</v>
       </c>
       <c r="I5" s="7">
-        <v>21539</v>
+        <v>374216</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="M5" s="7">
-        <v>21</v>
+        <v>383</v>
       </c>
       <c r="N5" s="7">
-        <v>21539</v>
+        <v>374216</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -4304,40 +3531,42 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="I6" s="7">
-        <v>374216</v>
+        <v>395755</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="N6" s="7">
-        <v>374216</v>
+        <v>395755</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B7" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -4353,42 +3582,40 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>404</v>
+        <v>24</v>
       </c>
       <c r="I7" s="7">
-        <v>395755</v>
+        <v>22715</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="M7" s="7">
-        <v>404</v>
+        <v>24</v>
       </c>
       <c r="N7" s="7">
-        <v>395755</v>
+        <v>22715</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -4404,40 +3631,40 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>540829</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>540829</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -4453,40 +3680,42 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>24</v>
+        <v>579</v>
       </c>
       <c r="I9" s="7">
-        <v>22715</v>
+        <v>563544</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>24</v>
+        <v>579</v>
       </c>
       <c r="N9" s="7">
-        <v>22715</v>
+        <v>563544</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -4502,40 +3731,40 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>555</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>540829</v>
+        <v>11908</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="M10" s="7">
-        <v>555</v>
+        <v>12</v>
       </c>
       <c r="N10" s="7">
-        <v>540829</v>
+        <v>11908</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -4551,42 +3780,40 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>579</v>
+        <v>653</v>
       </c>
       <c r="I11" s="7">
-        <v>563544</v>
+        <v>649478</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="M11" s="7">
-        <v>579</v>
+        <v>653</v>
       </c>
       <c r="N11" s="7">
-        <v>563544</v>
+        <v>649478</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -4602,40 +3829,42 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>665</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>661386</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>665</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>661386</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -4651,40 +3880,40 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>11908</v>
+        <v>10226</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="M13" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N13" s="7">
-        <v>11908</v>
+        <v>10226</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -4700,34 +3929,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>653</v>
+        <v>592</v>
       </c>
       <c r="I14" s="7">
-        <v>649478</v>
+        <v>638851</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="M14" s="7">
-        <v>653</v>
+        <v>592</v>
       </c>
       <c r="N14" s="7">
-        <v>649478</v>
+        <v>638851</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,39 +3978,39 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>665</v>
+        <v>602</v>
       </c>
       <c r="I15" s="7">
-        <v>661386</v>
+        <v>649077</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>665</v>
+        <v>602</v>
       </c>
       <c r="N15" s="7">
-        <v>661386</v>
+        <v>649077</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4806,13 +4035,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4821,13 +4050,13 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4849,40 +4078,40 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>10</v>
+        <v>433</v>
       </c>
       <c r="I17" s="7">
-        <v>10226</v>
+        <v>496849</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>10</v>
+        <v>433</v>
       </c>
       <c r="N17" s="7">
-        <v>10226</v>
+        <v>496849</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -4898,40 +4127,42 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>592</v>
+        <v>433</v>
       </c>
       <c r="I18" s="7">
-        <v>638851</v>
+        <v>496849</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>592</v>
+        <v>433</v>
       </c>
       <c r="N18" s="7">
-        <v>638851</v>
+        <v>496849</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B19" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -4947,42 +4178,40 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>602</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>649077</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="M19" s="7">
-        <v>602</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>649077</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -4998,40 +4227,40 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>777931</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>777931</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -5047,40 +4276,42 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="I21" s="7">
-        <v>0</v>
+        <v>777931</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="N21" s="7">
-        <v>0</v>
+        <v>777931</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B22" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -5096,40 +4327,40 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>433</v>
+        <v>67</v>
       </c>
       <c r="I22" s="7">
-        <v>496849</v>
+        <v>66388</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
-        <v>433</v>
+        <v>67</v>
       </c>
       <c r="N22" s="7">
-        <v>496849</v>
+        <v>66388</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -5145,42 +4376,40 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>433</v>
+        <v>3271</v>
       </c>
       <c r="I23" s="7">
-        <v>496849</v>
+        <v>3478154</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="M23" s="7">
-        <v>433</v>
+        <v>3271</v>
       </c>
       <c r="N23" s="7">
-        <v>496849</v>
+        <v>3478154</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -5196,407 +4425,62 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>3338</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>3544542</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>3338</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>3544542</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="7">
-        <v>655</v>
-      </c>
-      <c r="I26" s="7">
-        <v>777931</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M26" s="7">
-        <v>655</v>
-      </c>
-      <c r="N26" s="7">
-        <v>777931</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>0</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="7">
-        <v>655</v>
-      </c>
-      <c r="I27" s="7">
-        <v>777931</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M27" s="7">
-        <v>655</v>
-      </c>
-      <c r="N27" s="7">
-        <v>777931</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="7">
-        <v>67</v>
-      </c>
-      <c r="I29" s="7">
-        <v>66388</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="M29" s="7">
-        <v>67</v>
-      </c>
-      <c r="N29" s="7">
-        <v>66388</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="7">
-        <v>3271</v>
-      </c>
-      <c r="I30" s="7">
-        <v>3478154</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="M30" s="7">
-        <v>3271</v>
-      </c>
-      <c r="N30" s="7">
-        <v>3478154</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="7">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I31" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M31" s="7">
-        <v>3338</v>
-      </c>
-      <c r="N31" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>70</v>
+      <c r="A25" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07D3285-ED68-41FA-8F10-6B75EB2C1C9F}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9977D7A0-B81E-4456-B97E-14EC4F7969C2}">
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5612,7 +4496,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5726,34 +4610,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>33251</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>33251</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5775,40 +4659,40 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>21</v>
+        <v>186</v>
       </c>
       <c r="I5" s="7">
-        <v>33251</v>
+        <v>321706</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="M5" s="7">
-        <v>21</v>
+        <v>186</v>
       </c>
       <c r="N5" s="7">
-        <v>33251</v>
+        <v>321706</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -5824,40 +4708,42 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>321706</v>
+        <v>354957</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="N6" s="7">
-        <v>321706</v>
+        <v>354957</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B7" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -5873,42 +4759,40 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>207</v>
+        <v>59</v>
       </c>
       <c r="I7" s="7">
-        <v>354957</v>
+        <v>81130</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="M7" s="7">
-        <v>207</v>
+        <v>59</v>
       </c>
       <c r="N7" s="7">
-        <v>354957</v>
+        <v>81130</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -5924,40 +4808,40 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>399</v>
       </c>
       <c r="I8" s="7">
-        <v>2005</v>
+        <v>416080</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>399</v>
       </c>
       <c r="N8" s="7">
-        <v>2005</v>
+        <v>416080</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -5973,40 +4857,42 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>59</v>
+        <v>458</v>
       </c>
       <c r="I9" s="7">
-        <v>81130</v>
+        <v>497210</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>59</v>
+        <v>458</v>
       </c>
       <c r="N9" s="7">
-        <v>81130</v>
+        <v>497210</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -6022,40 +4908,40 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>399</v>
+        <v>101</v>
       </c>
       <c r="I10" s="7">
-        <v>416081</v>
+        <v>68152</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="M10" s="7">
-        <v>399</v>
+        <v>101</v>
       </c>
       <c r="N10" s="7">
-        <v>416081</v>
+        <v>68152</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -6071,42 +4957,40 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>461</v>
+        <v>740</v>
       </c>
       <c r="I11" s="7">
-        <v>499215</v>
+        <v>511231</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="M11" s="7">
-        <v>461</v>
+        <v>740</v>
       </c>
       <c r="N11" s="7">
-        <v>499215</v>
+        <v>511231</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -6122,40 +5006,42 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>5</v>
+        <v>841</v>
       </c>
       <c r="I12" s="7">
-        <v>29463</v>
+        <v>579383</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>5</v>
+        <v>841</v>
       </c>
       <c r="N12" s="7">
-        <v>29463</v>
+        <v>579383</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -6171,40 +5057,40 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="I13" s="7">
-        <v>68152</v>
+        <v>44188</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="M13" s="7">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="N13" s="7">
-        <v>68152</v>
+        <v>44188</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -6220,34 +5106,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>740</v>
+        <v>1068</v>
       </c>
       <c r="I14" s="7">
-        <v>511230</v>
+        <v>701189</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
-        <v>740</v>
+        <v>1068</v>
       </c>
       <c r="N14" s="7">
-        <v>511230</v>
+        <v>701189</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6269,39 +5155,39 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>846</v>
+        <v>1138</v>
       </c>
       <c r="I15" s="7">
-        <v>608846</v>
+        <v>745377</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>846</v>
+        <v>1138</v>
       </c>
       <c r="N15" s="7">
-        <v>608846</v>
+        <v>745377</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6320,34 +5206,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>1884</v>
+        <v>2399</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>1884</v>
+        <v>2399</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6369,40 +5255,40 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>70</v>
+        <v>995</v>
       </c>
       <c r="I17" s="7">
-        <v>44188</v>
+        <v>591018</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="M17" s="7">
-        <v>70</v>
+        <v>995</v>
       </c>
       <c r="N17" s="7">
-        <v>44188</v>
+        <v>591018</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -6418,40 +5304,42 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>1068</v>
+        <v>999</v>
       </c>
       <c r="I18" s="7">
-        <v>701189</v>
+        <v>593417</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>174</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>1068</v>
+        <v>999</v>
       </c>
       <c r="N18" s="7">
-        <v>701189</v>
+        <v>593417</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>174</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>176</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B19" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -6467,42 +5355,40 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>1141</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>747261</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="M19" s="7">
-        <v>1141</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>747261</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>23</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -6518,40 +5404,40 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>1706</v>
       </c>
       <c r="I20" s="7">
-        <v>2762</v>
+        <v>1025364</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>177</v>
+        <v>47</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>1</v>
+        <v>1706</v>
       </c>
       <c r="N20" s="7">
-        <v>2762</v>
+        <v>1025364</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>177</v>
+        <v>47</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>178</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -6567,40 +5453,42 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>4</v>
+        <v>1706</v>
       </c>
       <c r="I21" s="7">
-        <v>2399</v>
+        <v>1025364</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>4</v>
+        <v>1706</v>
       </c>
       <c r="N21" s="7">
-        <v>2399</v>
+        <v>1025364</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>180</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B22" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -6616,40 +5504,40 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>995</v>
+        <v>255</v>
       </c>
       <c r="I22" s="7">
-        <v>591018</v>
+        <v>229119</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="M22" s="7">
-        <v>995</v>
+        <v>255</v>
       </c>
       <c r="N22" s="7">
-        <v>591018</v>
+        <v>229119</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -6665,42 +5553,40 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>1000</v>
+        <v>5094</v>
       </c>
       <c r="I23" s="7">
-        <v>596179</v>
+        <v>3566589</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>23</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
-        <v>1000</v>
+        <v>5094</v>
       </c>
       <c r="N23" s="7">
-        <v>596179</v>
+        <v>3566589</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>23</v>
+        <v>163</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>23</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -6716,399 +5602,54 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
-        <v>1</v>
+        <v>5349</v>
       </c>
       <c r="I24" s="7">
-        <v>619</v>
+        <v>3795708</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="M24" s="7">
-        <v>1</v>
+        <v>5349</v>
       </c>
       <c r="N24" s="7">
-        <v>619</v>
+        <v>3795708</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1706</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1025364</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1706</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1025364</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>0</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="7">
-        <v>1707</v>
-      </c>
-      <c r="I27" s="7">
-        <v>1025983</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M27" s="7">
-        <v>1707</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1025983</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="7">
-        <v>13</v>
-      </c>
-      <c r="I28" s="7">
-        <v>36734</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="M28" s="7">
-        <v>13</v>
-      </c>
-      <c r="N28" s="7">
-        <v>36734</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="7">
-        <v>255</v>
-      </c>
-      <c r="I29" s="7">
-        <v>229119</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M29" s="7">
-        <v>255</v>
-      </c>
-      <c r="N29" s="7">
-        <v>229119</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="7">
-        <v>5094</v>
-      </c>
-      <c r="I30" s="7">
-        <v>3566588</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="M30" s="7">
-        <v>5094</v>
-      </c>
-      <c r="N30" s="7">
-        <v>3566588</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="7">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="7">
-        <v>5362</v>
-      </c>
-      <c r="I31" s="7">
-        <v>3832441</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M31" s="7">
-        <v>5362</v>
-      </c>
-      <c r="N31" s="7">
-        <v>3832441</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>70</v>
+      <c r="A25" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/P1435-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1435-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE192049-DF94-4569-9CB2-2C8A94806058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C338E1F6-BE66-4F97-A564-6696F0CD0A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E204E7BC-AEDB-4217-9BD0-FCC437033034}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9D1505C8-6B6D-43EB-AAE5-053DFE694A20}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="179">
   <si>
     <t>Población con diagnóstico de dolor menstrual en 2007 (Tasa respuesta: 50,64%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -101,7 +101,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>14,91%</t>
@@ -122,7 +122,7 @@
     <t>87,88%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>8,95%</t>
@@ -143,7 +143,7 @@
     <t>93,01%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>3,65%</t>
@@ -164,7 +164,7 @@
     <t>97,81%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>0,72%</t>
@@ -185,243 +185,270 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor menstrual en 2012 (Tasa respuesta: 50,65%)</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor menstrual en 2016 (Tasa respuesta: 50,81%)</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
   </si>
   <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>99,14%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
   </si>
   <si>
     <t>98,13%</t>
   </si>
   <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor menstrual en 2012 (Tasa respuesta: 50,65%)</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor menstrual en 2016 (Tasa respuesta: 50,81%)</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
     <t>97,63%</t>
   </si>
   <si>
@@ -431,82 +458,82 @@
     <t>Población con diagnóstico de dolor menstrual en 2023 (Tasa respuesta: 61,18%)</t>
   </si>
   <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>0,11%</t>
+    <t>0,12%</t>
   </si>
   <si>
     <t>1,02%</t>
@@ -518,25 +545,37 @@
     <t>98,98%</t>
   </si>
   <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
   </si>
 </sst>
 </file>
@@ -948,8 +987,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78987D4-5846-4CF5-B561-193669E8434A}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961EE37A-59FC-42C7-BC21-98BFAD35D731}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1824,10 +1863,10 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>5817</v>
+        <v>3400</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>49</v>
@@ -1839,10 +1878,10 @@
         <v>51</v>
       </c>
       <c r="M19" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>5817</v>
+        <v>3400</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>49</v>
@@ -1873,10 +1912,10 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>655</v>
+        <v>367</v>
       </c>
       <c r="I20" s="7">
-        <v>671025</v>
+        <v>339534</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>52</v>
@@ -1888,10 +1927,10 @@
         <v>54</v>
       </c>
       <c r="M20" s="7">
-        <v>655</v>
+        <v>367</v>
       </c>
       <c r="N20" s="7">
-        <v>671025</v>
+        <v>339534</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>52</v>
@@ -1922,10 +1961,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -1937,10 +1976,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="N21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -1954,7 +1993,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1973,34 +2012,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>259</v>
+        <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>260146</v>
+        <v>2417</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="M22" s="7">
-        <v>259</v>
+        <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>260146</v>
+        <v>2417</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2022,34 +2061,34 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>3038</v>
+        <v>288</v>
       </c>
       <c r="I23" s="7">
-        <v>3119052</v>
+        <v>331491</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="M23" s="7">
-        <v>3038</v>
+        <v>288</v>
       </c>
       <c r="N23" s="7">
-        <v>3119052</v>
+        <v>331491</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2071,48 +2110,198 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>290</v>
+      </c>
+      <c r="N24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7">
+        <v>259</v>
+      </c>
+      <c r="I25" s="7">
+        <v>260146</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M25" s="7">
+        <v>259</v>
+      </c>
+      <c r="N25" s="7">
+        <v>260146</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3038</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3119051</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3038</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3119051</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>3297</v>
       </c>
-      <c r="N24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>61</v>
+      <c r="N27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2125,8 +2314,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C035154F-FDD0-4A2D-B2F5-9187D9A14114}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CBE3ED-A525-4B86-8F30-EA0105B617AC}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2142,7 +2331,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2262,13 +2451,13 @@
         <v>45364</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" s="7">
         <v>45</v>
@@ -2277,13 +2466,13 @@
         <v>45364</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2311,13 +2500,13 @@
         <v>384866</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M5" s="7">
         <v>376</v>
@@ -2326,13 +2515,13 @@
         <v>384866</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,13 +2600,13 @@
         <v>36454</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -2426,13 +2615,13 @@
         <v>36454</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2460,13 +2649,13 @@
         <v>573801</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M8" s="7">
         <v>535</v>
@@ -2475,13 +2664,13 @@
         <v>573801</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2560,13 +2749,13 @@
         <v>45626</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -2575,13 +2764,13 @@
         <v>45626</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,13 +2798,13 @@
         <v>663948</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M11" s="7">
         <v>623</v>
@@ -2624,13 +2813,13 @@
         <v>663948</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,13 +2898,13 @@
         <v>9966</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -2724,13 +2913,13 @@
         <v>9966</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2758,10 +2947,10 @@
         <v>604298</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>45</v>
@@ -2773,10 +2962,10 @@
         <v>604298</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>45</v>
@@ -2861,10 +3050,10 @@
         <v>43</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2876,10 +3065,10 @@
         <v>43</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2910,7 +3099,7 @@
         <v>47</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -2925,7 +3114,7 @@
         <v>47</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -3010,10 +3199,10 @@
         <v>43</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3025,10 +3214,10 @@
         <v>43</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,31 +3239,31 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I20" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>47</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="N20" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>47</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -3099,10 +3288,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -3114,10 +3303,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="N21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -3131,7 +3320,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3150,34 +3339,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>137409</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M22" s="7">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>137409</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,34 +3388,34 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>3163</v>
+        <v>350</v>
       </c>
       <c r="I23" s="7">
-        <v>3417689</v>
+        <v>388979</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>94</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="M23" s="7">
-        <v>3163</v>
+        <v>350</v>
       </c>
       <c r="N23" s="7">
-        <v>3417689</v>
+        <v>388979</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>94</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,48 +3437,198 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>350</v>
+      </c>
+      <c r="N24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7">
+        <v>133</v>
+      </c>
+      <c r="I25" s="7">
+        <v>137409</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M25" s="7">
+        <v>133</v>
+      </c>
+      <c r="N25" s="7">
+        <v>137409</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3163</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3417689</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3163</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3417689</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="7">
         <v>3296</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3555098</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>3296</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>3555098</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>61</v>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3302,8 +3641,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2639FD16-FF75-4631-8DF9-95572BC67F8A}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB48E0F6-D517-4554-B8E8-9C2276A59FB7}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3319,7 +3658,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3439,13 +3778,13 @@
         <v>21539</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -3454,13 +3793,13 @@
         <v>21539</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3488,13 +3827,13 @@
         <v>374216</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M5" s="7">
         <v>383</v>
@@ -3503,13 +3842,13 @@
         <v>374216</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,13 +3927,13 @@
         <v>22715</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>24</v>
@@ -3603,13 +3942,13 @@
         <v>22715</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,13 +3976,13 @@
         <v>540829</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="M8" s="7">
         <v>555</v>
@@ -3652,13 +3991,13 @@
         <v>540829</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,13 +4076,13 @@
         <v>11908</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -3752,13 +4091,13 @@
         <v>11908</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,13 +4125,13 @@
         <v>649478</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="M11" s="7">
         <v>653</v>
@@ -3801,13 +4140,13 @@
         <v>649478</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3886,13 +4225,13 @@
         <v>10226</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -3901,13 +4240,13 @@
         <v>10226</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,13 +4274,13 @@
         <v>638851</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="M14" s="7">
         <v>592</v>
@@ -3950,13 +4289,13 @@
         <v>638851</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,10 +4377,10 @@
         <v>43</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4053,10 +4392,10 @@
         <v>43</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,7 +4426,7 @@
         <v>47</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -4102,7 +4441,7 @@
         <v>47</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -4187,10 +4526,10 @@
         <v>43</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4202,10 +4541,10 @@
         <v>43</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4227,31 +4566,31 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I20" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>47</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="N20" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>47</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -4276,10 +4615,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -4291,10 +4630,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="N21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -4308,7 +4647,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4327,34 +4666,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>66388</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>66388</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,34 +4715,34 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>3271</v>
+        <v>301</v>
       </c>
       <c r="I23" s="7">
-        <v>3478154</v>
+        <v>400169</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="M23" s="7">
-        <v>3271</v>
+        <v>301</v>
       </c>
       <c r="N23" s="7">
-        <v>3478154</v>
+        <v>400169</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4425,48 +4764,198 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>301</v>
+      </c>
+      <c r="N24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7">
+        <v>67</v>
+      </c>
+      <c r="I25" s="7">
+        <v>66388</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M25" s="7">
+        <v>67</v>
+      </c>
+      <c r="N25" s="7">
+        <v>66388</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3271</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3478154</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3271</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3478154</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>3338</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>3544542</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>61</v>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4479,8 +4968,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9977D7A0-B81E-4456-B97E-14EC4F7969C2}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA34C12-C637-4A4E-A70D-650718F1A969}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4496,7 +4985,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4613,31 +5102,31 @@
         <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>33251</v>
+        <v>30408</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
       </c>
       <c r="N4" s="7">
-        <v>33251</v>
+        <v>30408</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4662,31 +5151,31 @@
         <v>186</v>
       </c>
       <c r="I5" s="7">
-        <v>321706</v>
+        <v>282792</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="M5" s="7">
         <v>186</v>
       </c>
       <c r="N5" s="7">
-        <v>321706</v>
+        <v>282792</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,7 +5200,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -4726,7 +5215,7 @@
         <v>207</v>
       </c>
       <c r="N6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -4762,31 +5251,31 @@
         <v>59</v>
       </c>
       <c r="I7" s="7">
-        <v>81130</v>
+        <v>129788</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="M7" s="7">
         <v>59</v>
       </c>
       <c r="N7" s="7">
-        <v>81130</v>
+        <v>129788</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,31 +5300,31 @@
         <v>399</v>
       </c>
       <c r="I8" s="7">
-        <v>416080</v>
+        <v>380392</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="M8" s="7">
         <v>399</v>
       </c>
       <c r="N8" s="7">
-        <v>416080</v>
+        <v>380392</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4860,7 +5349,7 @@
         <v>458</v>
       </c>
       <c r="I9" s="7">
-        <v>497210</v>
+        <v>510180</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -4875,7 +5364,7 @@
         <v>458</v>
       </c>
       <c r="N9" s="7">
-        <v>497210</v>
+        <v>510180</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -4911,31 +5400,31 @@
         <v>101</v>
       </c>
       <c r="I10" s="7">
-        <v>68152</v>
+        <v>63375</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="M10" s="7">
         <v>101</v>
       </c>
       <c r="N10" s="7">
-        <v>68152</v>
+        <v>63375</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4960,31 +5449,31 @@
         <v>740</v>
       </c>
       <c r="I11" s="7">
-        <v>511231</v>
+        <v>475257</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
         <v>740</v>
       </c>
       <c r="N11" s="7">
-        <v>511231</v>
+        <v>475257</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5009,7 +5498,7 @@
         <v>841</v>
       </c>
       <c r="I12" s="7">
-        <v>579383</v>
+        <v>538632</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -5024,7 +5513,7 @@
         <v>841</v>
       </c>
       <c r="N12" s="7">
-        <v>579383</v>
+        <v>538632</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -5060,31 +5549,31 @@
         <v>70</v>
       </c>
       <c r="I13" s="7">
-        <v>44188</v>
+        <v>41050</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
       </c>
       <c r="N13" s="7">
-        <v>44188</v>
+        <v>41050</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,31 +5598,31 @@
         <v>1068</v>
       </c>
       <c r="I14" s="7">
-        <v>701189</v>
+        <v>670082</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="M14" s="7">
         <v>1068</v>
       </c>
       <c r="N14" s="7">
-        <v>701189</v>
+        <v>670082</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,7 +5647,7 @@
         <v>1138</v>
       </c>
       <c r="I15" s="7">
-        <v>745377</v>
+        <v>711132</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -5173,7 +5662,7 @@
         <v>1138</v>
       </c>
       <c r="N15" s="7">
-        <v>745377</v>
+        <v>711132</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -5209,31 +5698,31 @@
         <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>2399</v>
+        <v>2205</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>2399</v>
+        <v>2205</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5258,31 +5747,31 @@
         <v>995</v>
       </c>
       <c r="I17" s="7">
-        <v>591018</v>
+        <v>542523</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="M17" s="7">
         <v>995</v>
       </c>
       <c r="N17" s="7">
-        <v>591018</v>
+        <v>542523</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,7 +5796,7 @@
         <v>999</v>
       </c>
       <c r="I18" s="7">
-        <v>593417</v>
+        <v>544728</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -5322,7 +5811,7 @@
         <v>999</v>
       </c>
       <c r="N18" s="7">
-        <v>593417</v>
+        <v>544728</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -5364,10 +5853,10 @@
         <v>43</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5379,10 +5868,10 @@
         <v>43</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5404,31 +5893,31 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>1706</v>
+        <v>826</v>
       </c>
       <c r="I20" s="7">
-        <v>1025364</v>
+        <v>607786</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>47</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>1706</v>
+        <v>826</v>
       </c>
       <c r="N20" s="7">
-        <v>1025364</v>
+        <v>607786</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>47</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -5453,10 +5942,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>1706</v>
+        <v>826</v>
       </c>
       <c r="I21" s="7">
-        <v>1025364</v>
+        <v>607786</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -5468,10 +5957,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1706</v>
+        <v>826</v>
       </c>
       <c r="N21" s="7">
-        <v>1025364</v>
+        <v>607786</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -5485,7 +5974,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5504,34 +5993,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>229119</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="M22" s="7">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>229119</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5553,34 +6042,34 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>5094</v>
+        <v>880</v>
       </c>
       <c r="I23" s="7">
-        <v>3566589</v>
+        <v>425246</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>47</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="M23" s="7">
-        <v>5094</v>
+        <v>880</v>
       </c>
       <c r="N23" s="7">
-        <v>3566589</v>
+        <v>425246</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>47</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5602,48 +6091,198 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
+        <v>880</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425246</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>880</v>
+      </c>
+      <c r="N24" s="7">
+        <v>425246</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7">
+        <v>255</v>
+      </c>
+      <c r="I25" s="7">
+        <v>266826</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="M25" s="7">
+        <v>255</v>
+      </c>
+      <c r="N25" s="7">
+        <v>266826</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5094</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3384078</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5094</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3384078</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="7">
         <v>5349</v>
       </c>
-      <c r="I24" s="7">
-        <v>3795708</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3650904</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>5349</v>
       </c>
-      <c r="N24" s="7">
-        <v>3795708</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>61</v>
+      <c r="N27" s="7">
+        <v>3650904</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
